--- a/2018/Norte/TO/relatorioTO.xlsx
+++ b/2018/Norte/TO/relatorioTO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:O265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,16 @@
           <t>Cargo</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>SQ_CANDIDATO</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GENERO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -558,6 +568,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N2" t="n">
+        <v>270000610923</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -617,6 +635,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N3" t="n">
+        <v>270000610932</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -676,6 +702,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N4" t="n">
+        <v>270000610935</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -735,6 +769,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N5" t="n">
+        <v>270000610936</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -794,6 +836,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N6" t="n">
+        <v>270000610937</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -853,6 +903,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N7" t="n">
+        <v>270000610938</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -912,6 +970,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N8" t="n">
+        <v>270000610939</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -971,6 +1037,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N9" t="n">
+        <v>270000610940</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1030,6 +1104,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N10" t="n">
+        <v>270000610948</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1089,6 +1171,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N11" t="n">
+        <v>270000610958</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1148,6 +1238,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N12" t="n">
+        <v>270000610959</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1207,6 +1305,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N13" t="n">
+        <v>270000610964</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1266,6 +1372,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N14" t="n">
+        <v>270000610965</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1325,6 +1439,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N15" t="n">
+        <v>270000610966</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1384,6 +1506,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N16" t="n">
+        <v>270000610967</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1443,6 +1573,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N17" t="n">
+        <v>270000618823</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1502,6 +1640,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N18" t="n">
+        <v>270000618824</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1561,6 +1707,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N19" t="n">
+        <v>270000618825</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1620,6 +1774,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N20" t="n">
+        <v>270000618826</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1679,6 +1841,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N21" t="n">
+        <v>270000618827</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1738,6 +1908,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N22" t="n">
+        <v>270000618828</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1797,6 +1975,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N23" t="n">
+        <v>270000618829</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1856,6 +2042,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N24" t="n">
+        <v>270000618830</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1915,6 +2109,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N25" t="n">
+        <v>270000618831</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1974,6 +2176,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N26" t="n">
+        <v>270000618832</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2033,6 +2243,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N27" t="n">
+        <v>270000618833</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2092,6 +2310,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N28" t="n">
+        <v>270000618834</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2151,6 +2377,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N29" t="n">
+        <v>270000618835</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2210,6 +2444,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N30" t="n">
+        <v>270000618836</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2269,6 +2511,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N31" t="n">
+        <v>270000618837</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2328,6 +2578,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N32" t="n">
+        <v>270000625435</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2387,6 +2645,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N33" t="n">
+        <v>270000625436</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2446,6 +2712,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N34" t="n">
+        <v>270000625437</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2505,6 +2779,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N35" t="n">
+        <v>270000625439</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2564,6 +2846,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N36" t="n">
+        <v>270000625441</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2623,6 +2913,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N37" t="n">
+        <v>270000625448</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2682,6 +2980,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N38" t="n">
+        <v>270000625450</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2741,6 +3047,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N39" t="n">
+        <v>270000625451</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2800,6 +3114,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N40" t="n">
+        <v>270000625454</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2859,6 +3181,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N41" t="n">
+        <v>270000625456</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2918,6 +3248,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N42" t="n">
+        <v>270000625458</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2977,6 +3315,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N43" t="n">
+        <v>270000625470</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3036,6 +3382,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N44" t="n">
+        <v>270000625472</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3095,6 +3449,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N45" t="n">
+        <v>270000625474</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3154,6 +3516,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N46" t="n">
+        <v>270000625478</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3213,6 +3583,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N47" t="n">
+        <v>270000625480</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3272,6 +3650,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N48" t="n">
+        <v>270000626120</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3331,6 +3717,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N49" t="n">
+        <v>270000626121</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3390,6 +3784,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N50" t="n">
+        <v>270000626122</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3449,6 +3851,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N51" t="n">
+        <v>270000626123</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3508,6 +3918,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N52" t="n">
+        <v>270000626124</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3567,6 +3985,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N53" t="n">
+        <v>270000626125</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3626,6 +4052,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N54" t="n">
+        <v>270000626126</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3685,6 +4119,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N55" t="n">
+        <v>270000626127</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3744,6 +4186,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N56" t="n">
+        <v>270000626128</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3803,6 +4253,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N57" t="n">
+        <v>270000626129</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3862,6 +4320,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N58" t="n">
+        <v>270000626130</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3921,6 +4387,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N59" t="n">
+        <v>270000626131</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3980,6 +4454,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N60" t="n">
+        <v>270000626132</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4039,6 +4521,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N61" t="n">
+        <v>270000626133</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4098,6 +4588,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N62" t="n">
+        <v>270000627135</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4157,6 +4655,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N63" t="n">
+        <v>270000627136</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4216,6 +4722,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N64" t="n">
+        <v>270000627137</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4275,6 +4789,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N65" t="n">
+        <v>270000627138</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4334,6 +4856,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N66" t="n">
+        <v>270000627139</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4393,6 +4923,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N67" t="n">
+        <v>270000627140</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4452,6 +4990,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N68" t="n">
+        <v>270000627141</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4511,6 +5057,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N69" t="n">
+        <v>270000627142</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4570,6 +5124,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N70" t="n">
+        <v>270000627143</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4629,6 +5191,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N71" t="n">
+        <v>270000627144</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4688,6 +5258,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N72" t="n">
+        <v>270000627145</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4747,6 +5325,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N73" t="n">
+        <v>270000627146</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4806,6 +5392,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N74" t="n">
+        <v>270000627398</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4865,6 +5459,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N75" t="n">
+        <v>270000627399</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4924,6 +5526,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N76" t="n">
+        <v>270000627400</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4983,6 +5593,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N77" t="n">
+        <v>270000627757</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5042,6 +5660,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N78" t="n">
+        <v>270000627768</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5101,6 +5727,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N79" t="n">
+        <v>270000627770</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5160,6 +5794,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N80" t="n">
+        <v>270000628100</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5219,6 +5861,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N81" t="n">
+        <v>270000628397</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5278,6 +5928,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N82" t="n">
+        <v>270000628399</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5337,6 +5995,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N83" t="n">
+        <v>270000628573</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5396,6 +6062,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N84" t="n">
+        <v>270000628777</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5455,6 +6129,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N85" t="n">
+        <v>270000629111</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5514,6 +6196,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N86" t="n">
+        <v>270000629137</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5573,6 +6263,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N87" t="n">
+        <v>270000629704</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5632,6 +6330,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N88" t="n">
+        <v>270000630037</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5691,6 +6397,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N89" t="n">
+        <v>270000630119</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5750,6 +6464,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N90" t="n">
+        <v>270000610923</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5809,6 +6531,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N91" t="n">
+        <v>270000610932</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5868,6 +6598,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N92" t="n">
+        <v>270000610935</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5927,6 +6665,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N93" t="n">
+        <v>270000610936</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5986,6 +6732,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N94" t="n">
+        <v>270000610937</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6045,6 +6799,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N95" t="n">
+        <v>270000610938</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6104,6 +6866,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N96" t="n">
+        <v>270000610939</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6163,6 +6933,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N97" t="n">
+        <v>270000610940</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6222,6 +7000,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N98" t="n">
+        <v>270000610948</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6281,6 +7067,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N99" t="n">
+        <v>270000610958</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6340,6 +7134,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N100" t="n">
+        <v>270000610959</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6399,6 +7201,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N101" t="n">
+        <v>270000610964</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6458,6 +7268,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N102" t="n">
+        <v>270000610965</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6517,6 +7335,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N103" t="n">
+        <v>270000610966</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6576,6 +7402,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N104" t="n">
+        <v>270000610967</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6635,6 +7469,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N105" t="n">
+        <v>270000618823</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6694,6 +7536,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N106" t="n">
+        <v>270000618824</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6753,6 +7603,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N107" t="n">
+        <v>270000618825</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6812,6 +7670,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N108" t="n">
+        <v>270000618826</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6871,6 +7737,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N109" t="n">
+        <v>270000618827</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6930,6 +7804,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N110" t="n">
+        <v>270000618828</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6989,6 +7871,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N111" t="n">
+        <v>270000618829</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7048,6 +7938,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N112" t="n">
+        <v>270000618830</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7107,6 +8005,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N113" t="n">
+        <v>270000618831</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7166,6 +8072,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N114" t="n">
+        <v>270000618832</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7225,6 +8139,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N115" t="n">
+        <v>270000618833</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7284,6 +8206,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N116" t="n">
+        <v>270000618834</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7343,6 +8273,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N117" t="n">
+        <v>270000618835</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7402,6 +8340,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N118" t="n">
+        <v>270000618836</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7461,6 +8407,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N119" t="n">
+        <v>270000618837</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7520,6 +8474,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N120" t="n">
+        <v>270000625435</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7579,6 +8541,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N121" t="n">
+        <v>270000625436</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7638,6 +8608,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N122" t="n">
+        <v>270000625437</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7697,6 +8675,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N123" t="n">
+        <v>270000625439</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7756,6 +8742,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N124" t="n">
+        <v>270000625441</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7815,6 +8809,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N125" t="n">
+        <v>270000625448</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7874,6 +8876,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N126" t="n">
+        <v>270000625450</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7933,6 +8943,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N127" t="n">
+        <v>270000625451</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7992,6 +9010,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N128" t="n">
+        <v>270000625454</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8051,6 +9077,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N129" t="n">
+        <v>270000625456</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8110,6 +9144,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N130" t="n">
+        <v>270000625458</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8169,6 +9211,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N131" t="n">
+        <v>270000625470</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8228,6 +9278,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N132" t="n">
+        <v>270000625472</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8287,6 +9345,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N133" t="n">
+        <v>270000625474</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8346,6 +9412,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N134" t="n">
+        <v>270000625478</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8405,6 +9479,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N135" t="n">
+        <v>270000625480</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8464,6 +9546,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N136" t="n">
+        <v>270000626120</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8523,6 +9613,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N137" t="n">
+        <v>270000626121</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8582,6 +9680,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N138" t="n">
+        <v>270000626122</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8641,6 +9747,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N139" t="n">
+        <v>270000626123</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8700,6 +9814,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N140" t="n">
+        <v>270000626124</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8759,6 +9881,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N141" t="n">
+        <v>270000626125</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8818,6 +9948,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N142" t="n">
+        <v>270000626126</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8877,6 +10015,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N143" t="n">
+        <v>270000626127</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8936,6 +10082,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N144" t="n">
+        <v>270000626128</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8995,6 +10149,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N145" t="n">
+        <v>270000626129</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9054,6 +10216,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N146" t="n">
+        <v>270000626130</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9113,6 +10283,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N147" t="n">
+        <v>270000626131</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9172,6 +10350,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N148" t="n">
+        <v>270000626132</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9231,6 +10417,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N149" t="n">
+        <v>270000626133</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9290,6 +10484,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N150" t="n">
+        <v>270000627135</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9349,6 +10551,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N151" t="n">
+        <v>270000627136</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9408,6 +10618,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N152" t="n">
+        <v>270000627137</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9467,6 +10685,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N153" t="n">
+        <v>270000627138</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9526,6 +10752,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N154" t="n">
+        <v>270000627139</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9585,6 +10819,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N155" t="n">
+        <v>270000627140</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9644,6 +10886,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N156" t="n">
+        <v>270000627141</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9703,6 +10953,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N157" t="n">
+        <v>270000627142</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9762,6 +11020,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N158" t="n">
+        <v>270000627143</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9821,6 +11087,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N159" t="n">
+        <v>270000627144</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9880,6 +11154,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N160" t="n">
+        <v>270000627145</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9939,6 +11221,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N161" t="n">
+        <v>270000627146</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9998,6 +11288,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N162" t="n">
+        <v>270000627398</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -10057,6 +11355,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N163" t="n">
+        <v>270000627399</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -10116,6 +11422,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N164" t="n">
+        <v>270000627400</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10175,6 +11489,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N165" t="n">
+        <v>270000627757</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10234,6 +11556,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N166" t="n">
+        <v>270000627768</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10293,6 +11623,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N167" t="n">
+        <v>270000627770</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10352,6 +11690,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N168" t="n">
+        <v>270000628100</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10411,6 +11757,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N169" t="n">
+        <v>270000628397</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10470,6 +11824,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N170" t="n">
+        <v>270000628399</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10529,6 +11891,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N171" t="n">
+        <v>270000628573</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10588,6 +11958,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N172" t="n">
+        <v>270000628777</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10647,6 +12025,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N173" t="n">
+        <v>270000629111</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10706,6 +12092,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N174" t="n">
+        <v>270000629137</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10765,6 +12159,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N175" t="n">
+        <v>270000629704</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10824,6 +12226,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N176" t="n">
+        <v>270000630037</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -10883,6 +12293,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N177" t="n">
+        <v>270000630119</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -10942,6 +12360,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N178" t="n">
+        <v>270000610923</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -11001,6 +12427,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N179" t="n">
+        <v>270000610932</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -11060,6 +12494,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N180" t="n">
+        <v>270000610935</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -11119,6 +12561,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N181" t="n">
+        <v>270000610936</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -11178,6 +12628,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N182" t="n">
+        <v>270000610937</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11237,6 +12695,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N183" t="n">
+        <v>270000610938</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -11296,6 +12762,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N184" t="n">
+        <v>270000610939</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -11355,6 +12829,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N185" t="n">
+        <v>270000610940</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11414,6 +12896,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N186" t="n">
+        <v>270000610948</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11473,6 +12963,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N187" t="n">
+        <v>270000610958</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11532,6 +13030,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N188" t="n">
+        <v>270000610959</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11591,6 +13097,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N189" t="n">
+        <v>270000610964</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11650,6 +13164,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N190" t="n">
+        <v>270000610965</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11709,6 +13231,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N191" t="n">
+        <v>270000610966</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11768,6 +13298,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N192" t="n">
+        <v>270000610967</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -11827,6 +13365,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N193" t="n">
+        <v>270000618823</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -11886,6 +13432,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N194" t="n">
+        <v>270000618824</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -11945,6 +13499,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N195" t="n">
+        <v>270000618825</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -12004,6 +13566,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N196" t="n">
+        <v>270000618826</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -12063,6 +13633,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N197" t="n">
+        <v>270000618827</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -12122,6 +13700,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N198" t="n">
+        <v>270000618828</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -12181,6 +13767,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N199" t="n">
+        <v>270000618829</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12240,6 +13834,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N200" t="n">
+        <v>270000618830</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -12299,6 +13901,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N201" t="n">
+        <v>270000618831</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12358,6 +13968,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N202" t="n">
+        <v>270000618832</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12417,6 +14035,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N203" t="n">
+        <v>270000618833</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12476,6 +14102,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N204" t="n">
+        <v>270000618834</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12535,6 +14169,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N205" t="n">
+        <v>270000618835</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12594,6 +14236,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N206" t="n">
+        <v>270000618836</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12653,6 +14303,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N207" t="n">
+        <v>270000618837</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12712,6 +14370,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N208" t="n">
+        <v>270000625435</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12771,6 +14437,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N209" t="n">
+        <v>270000625436</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -12830,6 +14504,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N210" t="n">
+        <v>270000625437</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -12889,6 +14571,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N211" t="n">
+        <v>270000625439</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -12948,6 +14638,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N212" t="n">
+        <v>270000625441</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -13007,6 +14705,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N213" t="n">
+        <v>270000625448</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -13066,6 +14772,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N214" t="n">
+        <v>270000625450</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -13125,6 +14839,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N215" t="n">
+        <v>270000625451</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -13184,6 +14906,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N216" t="n">
+        <v>270000625454</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -13243,6 +14973,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N217" t="n">
+        <v>270000625456</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -13302,6 +15040,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N218" t="n">
+        <v>270000625458</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -13361,6 +15107,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N219" t="n">
+        <v>270000625470</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -13420,6 +15174,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N220" t="n">
+        <v>270000625472</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13479,6 +15241,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N221" t="n">
+        <v>270000625474</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13538,6 +15308,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N222" t="n">
+        <v>270000625478</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13597,6 +15375,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N223" t="n">
+        <v>270000625480</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13656,6 +15442,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N224" t="n">
+        <v>270000626120</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13715,6 +15509,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N225" t="n">
+        <v>270000626121</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13774,6 +15576,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N226" t="n">
+        <v>270000626122</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -13833,6 +15643,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N227" t="n">
+        <v>270000626123</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -13892,6 +15710,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N228" t="n">
+        <v>270000626124</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -13951,6 +15777,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N229" t="n">
+        <v>270000626125</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -14010,6 +15844,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N230" t="n">
+        <v>270000626126</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -14069,6 +15911,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N231" t="n">
+        <v>270000626127</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -14128,6 +15978,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N232" t="n">
+        <v>270000626128</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -14187,6 +16045,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N233" t="n">
+        <v>270000626129</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -14246,6 +16112,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N234" t="n">
+        <v>270000626130</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -14305,6 +16179,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N235" t="n">
+        <v>270000626131</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -14364,6 +16246,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N236" t="n">
+        <v>270000626132</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -14423,6 +16313,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N237" t="n">
+        <v>270000626133</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14482,6 +16380,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N238" t="n">
+        <v>270000627135</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -14541,6 +16447,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N239" t="n">
+        <v>270000627136</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14600,6 +16514,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N240" t="n">
+        <v>270000627137</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14659,6 +16581,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N241" t="n">
+        <v>270000627138</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14718,6 +16648,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N242" t="n">
+        <v>270000627139</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -14777,6 +16715,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N243" t="n">
+        <v>270000627140</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -14836,6 +16782,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N244" t="n">
+        <v>270000627141</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -14895,6 +16849,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N245" t="n">
+        <v>270000627142</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -14954,6 +16916,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N246" t="n">
+        <v>270000627143</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -15013,6 +16983,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N247" t="n">
+        <v>270000627144</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -15072,6 +17050,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N248" t="n">
+        <v>270000627145</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -15131,6 +17117,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N249" t="n">
+        <v>270000627146</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -15190,6 +17184,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N250" t="n">
+        <v>270000627398</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -15249,6 +17251,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N251" t="n">
+        <v>270000627399</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -15308,6 +17318,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N252" t="n">
+        <v>270000627400</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -15367,6 +17385,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N253" t="n">
+        <v>270000627757</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -15426,6 +17452,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N254" t="n">
+        <v>270000627768</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -15485,6 +17519,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N255" t="n">
+        <v>270000627770</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -15544,6 +17586,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N256" t="n">
+        <v>270000628100</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15603,6 +17653,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N257" t="n">
+        <v>270000628397</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15662,6 +17720,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N258" t="n">
+        <v>270000628399</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15721,6 +17787,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N259" t="n">
+        <v>270000628573</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -15780,6 +17854,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N260" t="n">
+        <v>270000628777</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -15839,6 +17921,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N261" t="n">
+        <v>270000629111</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -15898,6 +17988,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N262" t="n">
+        <v>270000629137</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -15957,6 +18055,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N263" t="n">
+        <v>270000629704</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -16016,6 +18122,14 @@
           <t>DEPUTADO FEDERAL</t>
         </is>
       </c>
+      <c r="N264" t="n">
+        <v>270000630037</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -16073,6 +18187,14 @@
       <c r="M265" t="inlineStr">
         <is>
           <t>DEPUTADO FEDERAL</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>270000630119</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>FEMININO</t>
         </is>
       </c>
     </row>
